--- a/config_6.22/act_ty_phb_config.xlsx
+++ b/config_6.22/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>line|</t>
   </si>
@@ -65,13 +65,16 @@
     <t>is_have_point|开关1,0</t>
   </si>
   <si>
-    <t>prop_grade</t>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
   </si>
   <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>fqjkh_020_yxbd_rank</t>
+    <t>ymshf_021_hldr_rank</t>
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
@@ -83,10 +86,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_019_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_fqjkh_020_yxbd_rank</t>
+    <t>act_020_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_ymshf_021_hldr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -128,25 +131,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>福气值达到10万</t>
-  </si>
-  <si>
-    <t>福气值达到6万</t>
-  </si>
-  <si>
-    <t>福气值达到3万</t>
-  </si>
-  <si>
-    <t>福气值达到15000</t>
-  </si>
-  <si>
-    <t>福气值达到10000</t>
-  </si>
-  <si>
-    <t>福气值达到6000</t>
-  </si>
-  <si>
-    <t>福气值达到3000</t>
+    <t>欢乐券数达到300万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到180万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到90万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到45万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到30万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到18万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到9万</t>
   </si>
 </sst>
 </file>
@@ -154,24 +157,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -181,6 +178,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -188,66 +193,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,10 +223,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +245,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -284,25 +260,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,14 +316,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,8 +555,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,17 +603,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,136 +658,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -817,8 +814,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,7 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1269,7 +1266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:16">
+    <row r="2" ht="15.75" spans="1:16">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1282,80 +1279,80 @@
       <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="10">
-        <v>1623715200</v>
+        <v>1624320000</v>
       </c>
       <c r="I2" s="10">
-        <v>1624291199</v>
+        <v>1624895999</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1370,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1384,19 +1381,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="14.1" customHeight="1" spans="1:3">
@@ -1407,7 +1404,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1418,7 +1415,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1429,7 +1426,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1440,7 +1437,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1451,7 +1448,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1462,7 +1459,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1473,7 +1470,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1484,13 +1481,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1501,13 +1498,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
-        <v>60000</v>
+        <v>1800000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1518,13 +1515,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4">
-        <v>30000</v>
+        <v>900000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1535,13 +1532,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,13 +1549,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1569,13 +1566,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1586,13 +1583,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4">
-        <v>3000</v>
+        <v>90000</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="5:5">

--- a/config_6.22/act_ty_phb_config.xlsx
+++ b/config_6.22/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>ymshf_021_hldr_rank</t>
+    <t>ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
@@ -86,10 +86,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_020_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_ymshf_021_hldr_rank</t>
+    <t>act_016_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -192,6 +192,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -201,14 +216,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +230,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -231,7 +283,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,77 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,13 +353,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,163 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,11 +552,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,21 +621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -609,32 +630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,88 +646,88 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -736,60 +736,60 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,14 +820,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1192,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1253,7 +1247,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1288,25 +1282,25 @@
       <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>1624320000</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>1624895999</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="1">
@@ -1317,38 +1311,38 @@
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
@@ -1367,7 +1361,7 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
